--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna1-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna1-Epha5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,25 +525,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>21.78783233333333</v>
+        <v>17.919643</v>
       </c>
       <c r="H2">
-        <v>65.363497</v>
+        <v>53.75892899999999</v>
       </c>
       <c r="I2">
-        <v>0.9024488799587679</v>
+        <v>0.8982899767221961</v>
       </c>
       <c r="J2">
-        <v>0.9024488799587679</v>
+        <v>0.8982899767221962</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,33 +552,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.008504666666666666</v>
+        <v>0.0002903333333333334</v>
       </c>
       <c r="N2">
-        <v>0.025514</v>
+        <v>0.000871</v>
       </c>
       <c r="O2">
-        <v>0.428094431114616</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.428094431114616</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1852982513842222</v>
+        <v>0.005202669684333333</v>
       </c>
       <c r="R2">
-        <v>1.667684262458</v>
+        <v>0.046824027159</v>
       </c>
       <c r="S2">
-        <v>0.3863333398759711</v>
+        <v>0.8982899767221961</v>
       </c>
       <c r="T2">
-        <v>0.3863333398759711</v>
+        <v>0.8982899767221962</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -590,22 +590,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>21.78783233333333</v>
+        <v>1.359006333333333</v>
       </c>
       <c r="H3">
-        <v>65.363497</v>
+        <v>4.077019</v>
       </c>
       <c r="I3">
-        <v>0.9024488799587679</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="J3">
-        <v>0.9024488799587679</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,33 +614,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.01136166666666667</v>
+        <v>0.0002903333333333334</v>
       </c>
       <c r="N3">
-        <v>0.034085</v>
+        <v>0.000871</v>
       </c>
       <c r="O3">
-        <v>0.571905568885384</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.571905568885384</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.2475460883605556</v>
+        <v>0.0003945648387777778</v>
       </c>
       <c r="R3">
-        <v>2.227914795245</v>
+        <v>0.003551083549</v>
       </c>
       <c r="S3">
-        <v>0.5161155400827968</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="T3">
-        <v>0.5161155400827968</v>
+        <v>0.06812533974785755</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.359006333333333</v>
+        <v>0.669968</v>
       </c>
       <c r="H4">
-        <v>4.077019</v>
+        <v>2.009904</v>
       </c>
       <c r="I4">
-        <v>0.05628984676448105</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="J4">
-        <v>0.05628984676448104</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,214 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.008504666666666666</v>
+        <v>0.0002903333333333334</v>
       </c>
       <c r="N4">
-        <v>0.025514</v>
+        <v>0.000871</v>
       </c>
       <c r="O4">
-        <v>0.428094431114616</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.428094431114616</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.01155789586288889</v>
+        <v>0.0001945140426666667</v>
       </c>
       <c r="R4">
-        <v>0.104021062766</v>
+        <v>0.001750626384</v>
       </c>
       <c r="S4">
-        <v>0.02409736992816942</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="T4">
-        <v>0.02409736992816942</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.359006333333333</v>
-      </c>
-      <c r="H5">
-        <v>4.077019</v>
-      </c>
-      <c r="I5">
-        <v>0.05628984676448105</v>
-      </c>
-      <c r="J5">
-        <v>0.05628984676448104</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.01136166666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.034085</v>
-      </c>
-      <c r="O5">
-        <v>0.571905568885384</v>
-      </c>
-      <c r="P5">
-        <v>0.571905568885384</v>
-      </c>
-      <c r="Q5">
-        <v>0.01544057695722222</v>
-      </c>
-      <c r="R5">
-        <v>0.138965192615</v>
-      </c>
-      <c r="S5">
-        <v>0.03219247683631163</v>
-      </c>
-      <c r="T5">
-        <v>0.03219247683631162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.9961713333333333</v>
-      </c>
-      <c r="H6">
-        <v>2.988514</v>
-      </c>
-      <c r="I6">
-        <v>0.04126127327675105</v>
-      </c>
-      <c r="J6">
-        <v>0.04126127327675105</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.008504666666666666</v>
-      </c>
-      <c r="N6">
-        <v>0.025514</v>
-      </c>
-      <c r="O6">
-        <v>0.428094431114616</v>
-      </c>
-      <c r="P6">
-        <v>0.428094431114616</v>
-      </c>
-      <c r="Q6">
-        <v>0.008472105132888888</v>
-      </c>
-      <c r="R6">
-        <v>0.07624894619599999</v>
-      </c>
-      <c r="S6">
-        <v>0.01766372131047545</v>
-      </c>
-      <c r="T6">
-        <v>0.01766372131047545</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.9961713333333333</v>
-      </c>
-      <c r="H7">
-        <v>2.988514</v>
-      </c>
-      <c r="I7">
-        <v>0.04126127327675105</v>
-      </c>
-      <c r="J7">
-        <v>0.04126127327675105</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.01136166666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.034085</v>
-      </c>
-      <c r="O7">
-        <v>0.571905568885384</v>
-      </c>
-      <c r="P7">
-        <v>0.571905568885384</v>
-      </c>
-      <c r="Q7">
-        <v>0.01131816663222222</v>
-      </c>
-      <c r="R7">
-        <v>0.10186349969</v>
-      </c>
-      <c r="S7">
-        <v>0.02359755196627561</v>
-      </c>
-      <c r="T7">
-        <v>0.0235975519662756</v>
+        <v>0.03358468352994624</v>
       </c>
     </row>
   </sheetData>
